--- a/raw_data/vendors_db.xlsx
+++ b/raw_data/vendors_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D2F14C-BA55-46E6-BBAD-E6B27E3D2B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92925CE-FEE8-AD49-8F32-B5D0E12A1044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55055081-DE6E-4B45-951F-D4AB37DE9E6F}"/>
+    <workbookView xWindow="12340" yWindow="3160" windowWidth="23260" windowHeight="12460" xr2:uid="{55055081-DE6E-4B45-951F-D4AB37DE9E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>vendor_id</t>
   </si>
@@ -66,12 +63,33 @@
   </si>
   <si>
     <t>Duke Brodhead</t>
+  </si>
+  <si>
+    <t>CA1</t>
+  </si>
+  <si>
+    <t>MIDS Coffee</t>
+  </si>
+  <si>
+    <t>Gross Hall</t>
+  </si>
+  <si>
+    <t>GK6</t>
+  </si>
+  <si>
+    <t>Devil Coffee</t>
+  </si>
+  <si>
+    <t>Fuqua School</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,20 +437,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B617DB90-6D3E-464D-87D2-F756CC04DABA}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
     <col min="5" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -459,7 +478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -471,6 +490,34 @@
       </c>
       <c r="D3" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
